--- a/testdata/Test data.xlsx
+++ b/testdata/Test data.xlsx
@@ -407,7 +407,7 @@
     </row>
     <row r="2">
       <c r="A2" s="6">
-        <v>45817.0</v>
+        <v>45824.0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
